--- a/Design/proto_conv/主动技能配置表.xlsx
+++ b/Design/proto_conv/主动技能配置表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -448,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -465,32 +461,31 @@
     <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="7" max="7" width="7.75" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.25" customHeight="1">
+    <row r="1" spans="1:9" ht="41.25" customHeight="1">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -502,59 +497,56 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="B14" s="4"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
